--- a/data/Subset 1/TRACY LEWIS pt 1.xlsx
+++ b/data/Subset 1/TRACY LEWIS pt 1.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2 - Relating to Another Student</t>
+          <t>2 - Relating to Another S</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>STUDENTS</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>TRACY LEWIS</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
